--- a/文档/数据库/tb_pic.xlsx
+++ b/文档/数据库/tb_pic.xlsx
@@ -10,6 +10,32 @@
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>pic_id</t>
+  </si>
+  <si>
+    <t>school_id</t>
+  </si>
+  <si>
+    <t>pic_type</t>
+  </si>
+  <si>
+    <t>pic_src</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,8 +77,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>